--- a/similarities/split_global/harmonic_similarity_timestamps_251.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_251.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D#:min/A#', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['C:min', 'G:7/D', 'C:min/D#']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:15.210000')]</t>
+          <t>('0:02:14.220000', '0:02:19.560000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:13.390000', '0:00:17.230000')]</t>
+          <t>('0:00:02', '0:00:04.320000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=134.22</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=13.39']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>isophonics_19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab', 'Db']]</t>
+          <t>['D', 'G', 'A', 'D']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>['F', 'Bb', 'C', 'F']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:56.690000', '0:02:03.070000')]</t>
+          <t>('0:00:43.934000', '0:00:49.319000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:03.884104', '0:00:26.140430')]</t>
+          <t>('0:00:13.976734', '0:00:18.678775')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=43.934</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-19#t=13.976734</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['A:min/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['D:min', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:17.940000')]</t>
+          <t>('0:00:06.640000', '0:00:13.600000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:08.482392', '0:00:11.666439')]</t>
+          <t>('0:00:32.486000', '0:00:37.053000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=6.64</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=8.482392']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=32.486</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>isophonics_69</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:51.920000', '0:01:55.660000')]</t>
+          <t>('0:00:55.680000', '0:01:02.280000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:14.450219', '0:00:23.088042')]</t>
+          <t>('0:00:22.125076', '0:00:36.625937')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=14.450219']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A#/F', 'F:7', 'A#'], ['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min', 'A#:min/F']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['Bb', 'Bb:7', 'Eb', 'Bb']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:04:31.220000', '0:04:38.420000'), ('0:00:24.680000', '0:00:31.240000'), ('0:00:08.400000', '0:00:12.140000')]</t>
+          <t>('0:00:55.400000', '0:01:05.240000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:10.060000', '0:01:20.280000'), ('0:00:41.580000', '0:00:43.480000'), ('0:01:30.780000', '0:01:41.320000')]</t>
+          <t>('0:00:31.370000', '0:00:43.560000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=24.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=8.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=55.4</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=70.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=90.78']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=31.37</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>jaah_54</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'F']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:14.900000', '0:00:20.360000')]</t>
+          <t>('0:00:12.510000', '0:00:13.910000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:35.997000', '0:00:42.131000')]</t>
+          <t>('0:00:22.370000', '0:00:40.370000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=14.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=35.997']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_98</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G']]</t>
+          <t>['F:min', 'A#:min/F', 'F:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:33.340317', '0:00:56.455803')]</t>
+          <t>('0:00:27.360000', '0:00:34.920000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:04:51.440000', '0:04:53.300000')]</t>
+          <t>('0:00:00.700000', '0:00:03.780000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-98#t=33.340317']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=27.36</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=291.44']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=0.7</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>isophonics_223</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A'], ['B', 'E', 'A']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj'], ['A:maj', 'D:maj', 'G:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:17.886772', '0:00:23.088042'), ('0:00:00.444363', '0:00:11.872804')]</t>
+          <t>('0:00:00.440395', '0:00:07.142059')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:11.820000', '0:00:17.361000'), ('0:01:00.898000', '0:01:07.056000')]</t>
+          <t>('0:00:00.740000', '0:00:21.500000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=17.886772', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=0.444363']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-223#t=0.440395</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=60.898']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=0.74</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_93</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['G:hdim7/A#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['C:hdim7/D#', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:22.070000', '0:01:30.900000')]</t>
+          <t>('0:00:22.660000', '0:00:29.320000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:06.740000', '0:00:08.900000')]</t>
+          <t>('0:00:14.580000', '0:00:21.140000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=82.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=22.66</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=6.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=14.58</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab', 'Eb/3']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:55.680000', '0:01:02.280000')]</t>
+          <t>('0:01:10.060000', '0:01:20.280000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:26.923922', '0:01:32.322562')]</t>
+          <t>('0:04:43.300000', '0:04:50.060000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=70.06</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>isophonics_6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:47.580000', '0:00:50.040000')]</t>
+          <t>('0:00:00.279000', '0:00:16.531000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:19.980000', '0:00:27.180000')]</t>
+          <t>('0:01:20.420000', '0:01:24.640000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=0.279</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:06.774988', '0:00:12.870226')]</t>
+          <t>('0:00:30.050000', '0:00:41.370000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+          <t>('0:00:24.280000', '0:00:51.080000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=6.774988']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.05</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=24.28</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:00.300000', '0:00:02.820000')]</t>
+          <t>('0:00:25.800000', '0:00:31.820000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:03.320000', '0:00:08.680000')]</t>
+          <t>('0:00:46.520000', '0:00:48.940000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=25.8</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=3.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_189</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'D:min']]</t>
+          <t>['C:7', 'F:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'A:min']]</t>
+          <t>['G:7', 'C:maj', 'C:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:41.773000', '0:01:48.586000')]</t>
+          <t>('0:01:03.580000', '0:01:06.360000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:35.300702', '0:00:42.684648')]</t>
+          <t>('0:00:23.940000', '0:00:31.160000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=101.773']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.58</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-189#t=35.300702']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=23.94</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>isophonics_263</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['G:maj', 'C:maj', 'F:7']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>['E', 'A', 'D:7']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:55.460000', '0:00:59.640000')]</t>
+          <t>('0:00:16.520000', '0:00:20.520000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:20.440000', '0:00:26.160000')]</t>
+          <t>('0:01:03.779977', '0:01:15.482834')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=55.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=16.52</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=20.44']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-263#t=63.779977</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
